--- a/ref_docs/Feature_Map_v2.xlsx
+++ b/ref_docs/Feature_Map_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarr\Documents\GitHub\ads505_business_proj\ref_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE081F14-31B8-417B-B914-5EB8247F0DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F876C-B7F5-4B0D-B7F1-585D88E0F172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29235" yWindow="0" windowWidth="25005" windowHeight="13905" activeTab="1" xr2:uid="{9E5FB942-D815-48B7-87F6-15AD5525091B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E5FB942-D815-48B7-87F6-15AD5525091B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,9 +421,6 @@
     <t>lt_liab_to_equ_ratio</t>
   </si>
   <si>
-    <t>sales_inven_ratio</t>
-  </si>
-  <si>
     <t>sales_to_receiv_ratio</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
     <t>mod_int_grss_prof_to_tot_assets_ratio</t>
   </si>
   <si>
-    <t>mod_iven_curr_assets_to_st_liab_ratio</t>
-  </si>
-  <si>
     <t>mod_dep_grss_prof_to_tot_liab_ratio</t>
   </si>
   <si>
@@ -713,6 +707,12 @@
   </si>
   <si>
     <t>train_y01_vc01_eda1c</t>
+  </si>
+  <si>
+    <t>mod_inven_curr_assets_to_st_liab_ratio</t>
+  </si>
+  <si>
+    <t>sales_to_inven_ratio</t>
   </si>
 </sst>
 </file>
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535F7ED9-FC4B-4260-8514-5BDDAAD51DA2}">
   <dimension ref="C1:Y69"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G69"/>
+    <sheetView tabSelected="1" topLeftCell="W37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="2" spans="3:25" x14ac:dyDescent="0.25">
       <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">MAX(N3:N69+3)</f>
-        <v>121</v>
+        <f t="array" ref="N2">MAX(N3:N69+1)</f>
+        <v>119</v>
       </c>
       <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">MAX(O3:O69+3)</f>
-        <v>13</v>
+        <f t="array" ref="O2">MAX(O3:O69+1)</f>
+        <v>11</v>
       </c>
       <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">MAX(P3:P69+3)</f>
-        <v>40</v>
+        <f t="array" ref="P2">MAX(P3:P69+1)</f>
+        <v>39</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>67</v>
@@ -1190,31 +1190,31 @@
       </c>
       <c r="R3" s="1">
         <f>N$2-N3</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" ref="S3" si="1">O$2-O3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" ref="T3" si="2">P$2-P3</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V3" s="1" t="str">
         <f>"|"&amp;D3&amp;REPT(V$2,R3)&amp;"|"</f>
-        <v>|Original Feature Name                                                                                                    |</v>
+        <v>|Original Feature Name                                                                                                  |</v>
       </c>
       <c r="W3" s="1" t="str">
         <f>E3&amp;REPT(W$2,S3)&amp;"|"</f>
-        <v>Changed To   |</v>
+        <v>Changed To |</v>
       </c>
       <c r="X3" s="1" t="str">
         <f>F3&amp;REPT(X$2,T3)&amp;"|"</f>
-        <v>New Feature Name                        |</v>
+        <v>New Feature Name                       |</v>
       </c>
       <c r="Y3" s="1" t="str">
         <f>V3&amp;W3&amp;X3</f>
-        <v>|Original Feature Name                                                                                                    |Changed To   |New Feature Name                        |</v>
+        <v>|Original Feature Name                                                                                                  |Changed To |New Feature Name                       |</v>
       </c>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
@@ -1232,31 +1232,31 @@
       </c>
       <c r="R4" s="1">
         <f>N$2-N4</f>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" ref="S4" si="3">O$2-O4</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4" si="4">P$2-P4</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V4" s="1" t="str">
         <f>"|"&amp;REPT(V$1,N$2)&amp;"|"</f>
-        <v>|-------------------------------------------------------------------------------------------------------------------------|</v>
+        <v>|-----------------------------------------------------------------------------------------------------------------------|</v>
       </c>
       <c r="W4" s="1" t="str">
         <f>REPT(W$1,O2)&amp;"|"</f>
-        <v>-------------|</v>
+        <v>-----------|</v>
       </c>
       <c r="X4" s="1" t="str">
         <f>REPT(X$1,P2)&amp;"|"</f>
-        <v>----------------------------------------|</v>
+        <v>---------------------------------------|</v>
       </c>
       <c r="Y4" s="1" t="str">
         <f t="shared" ref="Y4:Y5" si="5">V4&amp;W4&amp;X4</f>
-        <v>|-------------------------------------------------------------------------------------------------------------------------|-------------|----------------------------------------|</v>
+        <v>|-----------------------------------------------------------------------------------------------------------------------|-----------|---------------------------------------|</v>
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>"'"&amp;IF(F5="",D5,F5)&amp;"', "</f>
@@ -1294,31 +1294,31 @@
       </c>
       <c r="R5" s="1">
         <f>N$2-N5</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" ref="S5:T5" si="6">O$2-O5</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V5" s="1" t="str">
         <f>"|"&amp;D5&amp;REPT(V$2,R5)&amp;"|"</f>
-        <v>|X1 net profit / total assets                                                                                             |</v>
+        <v>|X1 net profit / total assets                                                                                           |</v>
       </c>
       <c r="W5" s="1" t="str">
         <f>E5&amp;REPT(W$2,S5)&amp;"|"</f>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X5" s="1" t="str">
         <f>F5&amp;REPT(X$2,T5)&amp;"|"</f>
-        <v>net_prof_to_tot_assets_ratio            |</v>
+        <v>net_prof_to_tot_assets_ratio           |</v>
       </c>
       <c r="Y5" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>|X1 net profit / total assets                                                                                             |--&gt;          |net_prof_to_tot_assets_ratio            |</v>
+        <v>|X1 net profit / total assets                                                                                           |--&gt;        |net_prof_to_tot_assets_ratio           |</v>
       </c>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.25">
@@ -1356,31 +1356,31 @@
       </c>
       <c r="R6" s="1">
         <f t="shared" ref="R6:R69" si="12">N$2-N6</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" ref="S6:S69" si="13">O$2-O6</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" ref="T6:T69" si="14">P$2-P6</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V6" s="1" t="str">
         <f t="shared" ref="V6:V69" si="15">"|"&amp;D6&amp;REPT(V$2,R6)&amp;"|"</f>
-        <v>|X2 total liabilities / total assets                                                                                      |</v>
+        <v>|X2 total liabilities / total assets                                                                                    |</v>
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" ref="W6:W69" si="16">E6&amp;REPT(W$2,S6)&amp;"|"</f>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X6" s="1" t="str">
         <f t="shared" ref="X6:X69" si="17">F6&amp;REPT(X$2,T6)&amp;"|"</f>
-        <v>tot_liab_to_tot_assets_ratio            |</v>
+        <v>tot_liab_to_tot_assets_ratio           |</v>
       </c>
       <c r="Y6" s="1" t="str">
         <f t="shared" ref="Y6:Y68" si="18">V6&amp;W6&amp;X6</f>
-        <v>|X2 total liabilities / total assets                                                                                      |--&gt;          |tot_liab_to_tot_assets_ratio            |</v>
+        <v>|X2 total liabilities / total assets                                                                                    |--&gt;        |tot_liab_to_tot_assets_ratio           |</v>
       </c>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.25">
@@ -1418,31 +1418,31 @@
       </c>
       <c r="R7" s="1">
         <f t="shared" si="12"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V7" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X3 working capital / total assets                                                                                        |</v>
+        <v>|X3 working capital / total assets                                                                                      |</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X7" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>work_cap_to_tot_assets_ratio            |</v>
+        <v>work_cap_to_tot_assets_ratio           |</v>
       </c>
       <c r="Y7" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X3 working capital / total assets                                                                                        |--&gt;          |work_cap_to_tot_assets_ratio            |</v>
+        <v>|X3 working capital / total assets                                                                                      |--&gt;        |work_cap_to_tot_assets_ratio           |</v>
       </c>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.25">
@@ -1480,31 +1480,31 @@
       </c>
       <c r="R8" s="1">
         <f t="shared" si="12"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V8" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X4 current assets / short-term liabilities                                                                               |</v>
+        <v>|X4 current assets / short-term liabilities                                                                             |</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X8" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>curr_assets_to_st_liab_ratio            |</v>
+        <v>curr_assets_to_st_liab_ratio           |</v>
       </c>
       <c r="Y8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X4 current assets / short-term liabilities                                                                               |--&gt;          |curr_assets_to_st_liab_ratio            |</v>
+        <v>|X4 current assets / short-term liabilities                                                                             |--&gt;        |curr_assets_to_st_liab_ratio           |</v>
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.25">
@@ -1542,31 +1542,31 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V9" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X5 [(cash + short-term securities + receivables - short-term liabilities) / (operating expenses - depreciation)] * 365   |</v>
+        <v>|X5 [(cash + short-term securities + receivables - short-term liabilities) / (operating expenses - depreciation)] * 365 |</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X9" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>equ_to_ann_ops_exp_ratio                |</v>
+        <v>equ_to_ann_ops_exp_ratio               |</v>
       </c>
       <c r="Y9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X5 [(cash + short-term securities + receivables - short-term liabilities) / (operating expenses - depreciation)] * 365   |--&gt;          |equ_to_ann_ops_exp_ratio                |</v>
+        <v>|X5 [(cash + short-term securities + receivables - short-term liabilities) / (operating expenses - depreciation)] * 365 |--&gt;        |equ_to_ann_ops_exp_ratio               |</v>
       </c>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.25">
@@ -1604,31 +1604,31 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="12"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V10" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X6 retained earnings / total assets                                                                                      |</v>
+        <v>|X6 retained earnings / total assets                                                                                    |</v>
       </c>
       <c r="W10" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X10" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ret_earn_to_tot_assets_ratio            |</v>
+        <v>ret_earn_to_tot_assets_ratio           |</v>
       </c>
       <c r="Y10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X6 retained earnings / total assets                                                                                      |--&gt;          |ret_earn_to_tot_assets_ratio            |</v>
+        <v>|X6 retained earnings / total assets                                                                                    |--&gt;        |ret_earn_to_tot_assets_ratio           |</v>
       </c>
     </row>
     <row r="11" spans="3:25" x14ac:dyDescent="0.25">
@@ -1666,31 +1666,31 @@
       </c>
       <c r="R11" s="1">
         <f t="shared" si="12"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V11" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X7 EBIT / total assets                                                                                                   |</v>
+        <v>|X7 EBIT / total assets                                                                                                 |</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X11" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ebit_to_tot_assets_ratio                |</v>
+        <v>ebit_to_tot_assets_ratio               |</v>
       </c>
       <c r="Y11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X7 EBIT / total assets                                                                                                   |--&gt;          |ebit_to_tot_assets_ratio                |</v>
+        <v>|X7 EBIT / total assets                                                                                                 |--&gt;        |ebit_to_tot_assets_ratio               |</v>
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.25">
@@ -1728,31 +1728,31 @@
       </c>
       <c r="R12" s="1">
         <f t="shared" si="12"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V12" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X8 book value of equity / total liabilities                                                                              |</v>
+        <v>|X8 book value of equity / total liabilities                                                                            |</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X12" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>book_equ_to_tot_liab_ratio              |</v>
+        <v>book_equ_to_tot_liab_ratio             |</v>
       </c>
       <c r="Y12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X8 book value of equity / total liabilities                                                                              |--&gt;          |book_equ_to_tot_liab_ratio              |</v>
+        <v>|X8 book value of equity / total liabilities                                                                            |--&gt;        |book_equ_to_tot_liab_ratio             |</v>
       </c>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
@@ -1790,31 +1790,31 @@
       </c>
       <c r="R13" s="1">
         <f t="shared" si="12"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V13" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X9 sales / total assets                                                                                                  |</v>
+        <v>|X9 sales / total assets                                                                                                |</v>
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X13" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>sales_to_tot_assets_ratio               |</v>
+        <v>sales_to_tot_assets_ratio              |</v>
       </c>
       <c r="Y13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X9 sales / total assets                                                                                                  |--&gt;          |sales_to_tot_assets_ratio               |</v>
+        <v>|X9 sales / total assets                                                                                                |--&gt;        |sales_to_tot_assets_ratio              |</v>
       </c>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.25">
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R14" s="1">
         <f t="shared" si="12"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V14" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X10 equity / total assets                                                                                                |</v>
+        <v>|X10 equity / total assets                                                                                              |</v>
       </c>
       <c r="W14" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X14" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>equ_to_tot_assets_ratio                 |</v>
+        <v>equ_to_tot_assets_ratio                |</v>
       </c>
       <c r="Y14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X10 equity / total assets                                                                                                |--&gt;          |equ_to_tot_assets_ratio                 |</v>
+        <v>|X10 equity / total assets                                                                                              |--&gt;        |equ_to_tot_assets_ratio                |</v>
       </c>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="7"/>
@@ -1914,31 +1914,31 @@
       </c>
       <c r="R15" s="1">
         <f t="shared" si="12"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X11 (gross profit + extraordinary items + financial expenses) / total assets                                             |</v>
+        <v>|X11 (gross profit + extraordinary items + financial expenses) / total assets                                           |</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X15" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_ef_grss_prof_to_tot_assets_ratio    |</v>
+        <v>mod_ef_grss_prof_to_tot_assets_ratio   |</v>
       </c>
       <c r="Y15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X11 (gross profit + extraordinary items + financial expenses) / total assets                                             |--&gt;          |mod_ef_grss_prof_to_tot_assets_ratio    |</v>
+        <v>|X11 (gross profit + extraordinary items + financial expenses) / total assets                                           |--&gt;        |mod_ef_grss_prof_to_tot_assets_ratio   |</v>
       </c>
     </row>
     <row r="16" spans="3:25" x14ac:dyDescent="0.25">
@@ -1976,31 +1976,31 @@
       </c>
       <c r="R16" s="1">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V16" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X12 gross profit / short-term liabilities                                                                                |</v>
+        <v>|X12 gross profit / short-term liabilities                                                                              |</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X16" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>grss_prof_to_st_liab_ratio              |</v>
+        <v>grss_prof_to_st_liab_ratio             |</v>
       </c>
       <c r="Y16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X12 gross profit / short-term liabilities                                                                                |--&gt;          |grss_prof_to_st_liab_ratio              |</v>
+        <v>|X12 gross profit / short-term liabilities                                                                              |--&gt;        |grss_prof_to_st_liab_ratio             |</v>
       </c>
     </row>
     <row r="17" spans="3:25" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2038,31 +2038,31 @@
       </c>
       <c r="R17" s="1">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V17" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X13 (gross profit + depreciation) / sales                                                                                |</v>
+        <v>|X13 (gross profit + depreciation) / sales                                                                              |</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X17" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_dep_grss_prof_to_sales_ratio        |</v>
+        <v>mod_dep_grss_prof_to_sales_ratio       |</v>
       </c>
       <c r="Y17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X13 (gross profit + depreciation) / sales                                                                                |--&gt;          |mod_dep_grss_prof_to_sales_ratio        |</v>
+        <v>|X13 (gross profit + depreciation) / sales                                                                              |--&gt;        |mod_dep_grss_prof_to_sales_ratio       |</v>
       </c>
     </row>
     <row r="18" spans="3:25" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2100,31 +2100,31 @@
       </c>
       <c r="R18" s="1">
         <f t="shared" si="12"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X14 (gross profit + interest) / total assets                                                                             |</v>
+        <v>|X14 (gross profit + interest) / total assets                                                                           |</v>
       </c>
       <c r="W18" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X18" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_int_grss_prof_to_tot_assets_ratio   |</v>
+        <v>mod_int_grss_prof_to_tot_assets_ratio  |</v>
       </c>
       <c r="Y18" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X14 (gross profit + interest) / total assets                                                                             |--&gt;          |mod_int_grss_prof_to_tot_assets_ratio   |</v>
+        <v>|X14 (gross profit + interest) / total assets                                                                           |--&gt;        |mod_int_grss_prof_to_tot_assets_ratio  |</v>
       </c>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.25">
@@ -2162,31 +2162,31 @@
       </c>
       <c r="R19" s="1">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X15 (total liabilities * 365) / (gross profit + depreciation)                                                            |</v>
+        <v>|X15 (total liabilities * 365) / (gross profit + depreciation)                                                          |</v>
       </c>
       <c r="W19" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X19" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ann_tot_liab_to_mod_grss_prof_ratio     |</v>
+        <v>ann_tot_liab_to_mod_grss_prof_ratio    |</v>
       </c>
       <c r="Y19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X15 (total liabilities * 365) / (gross profit + depreciation)                                                            |--&gt;          |ann_tot_liab_to_mod_grss_prof_ratio     |</v>
+        <v>|X15 (total liabilities * 365) / (gross profit + depreciation)                                                          |--&gt;        |ann_tot_liab_to_mod_grss_prof_ratio    |</v>
       </c>
     </row>
     <row r="20" spans="3:25" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2224,31 +2224,31 @@
       </c>
       <c r="R20" s="1">
         <f t="shared" si="12"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X16 (gross profit + depreciation) / total liabilities                                                                    |</v>
+        <v>|X16 (gross profit + depreciation) / total liabilities                                                                  |</v>
       </c>
       <c r="W20" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X20" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_dep_grss_prof_to_tot_liab_ratio     |</v>
+        <v>mod_dep_grss_prof_to_tot_liab_ratio    |</v>
       </c>
       <c r="Y20" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X16 (gross profit + depreciation) / total liabilities                                                                    |--&gt;          |mod_dep_grss_prof_to_tot_liab_ratio     |</v>
+        <v>|X16 (gross profit + depreciation) / total liabilities                                                                  |--&gt;        |mod_dep_grss_prof_to_tot_liab_ratio    |</v>
       </c>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.25">
@@ -2286,31 +2286,31 @@
       </c>
       <c r="R21" s="1">
         <f t="shared" si="12"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V21" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X17 total assets / total liabilities                                                                                     |</v>
+        <v>|X17 total assets / total liabilities                                                                                   |</v>
       </c>
       <c r="W21" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X21" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>tot_assets_to_tot_liab_ratio            |</v>
+        <v>tot_assets_to_tot_liab_ratio           |</v>
       </c>
       <c r="Y21" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X17 total assets / total liabilities                                                                                     |--&gt;          |tot_assets_to_tot_liab_ratio            |</v>
+        <v>|X17 total assets / total liabilities                                                                                   |--&gt;        |tot_assets_to_tot_liab_ratio           |</v>
       </c>
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.25">
@@ -2348,31 +2348,31 @@
       </c>
       <c r="R22" s="1">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V22" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X18 gross profit / total assets                                                                                          |</v>
+        <v>|X18 gross profit / total assets                                                                                        |</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X22" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>grss_prof_to_tot_assets_ratio           |</v>
+        <v>grss_prof_to_tot_assets_ratio          |</v>
       </c>
       <c r="Y22" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X18 gross profit / total assets                                                                                          |--&gt;          |grss_prof_to_tot_assets_ratio           |</v>
+        <v>|X18 gross profit / total assets                                                                                        |--&gt;        |grss_prof_to_tot_assets_ratio          |</v>
       </c>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.25">
@@ -2410,31 +2410,31 @@
       </c>
       <c r="R23" s="1">
         <f t="shared" si="12"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V23" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X19 gross profit / sales                                                                                                 |</v>
+        <v>|X19 gross profit / sales                                                                                               |</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X23" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>grss_prof_to_sales_ratio                |</v>
+        <v>grss_prof_to_sales_ratio               |</v>
       </c>
       <c r="Y23" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X19 gross profit / sales                                                                                                 |--&gt;          |grss_prof_to_sales_ratio                |</v>
+        <v>|X19 gross profit / sales                                                                                               |--&gt;        |grss_prof_to_sales_ratio               |</v>
       </c>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.25">
@@ -2472,31 +2472,31 @@
       </c>
       <c r="R24" s="1">
         <f t="shared" si="12"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V24" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X20 (inventory * 365) / sales                                                                                            |</v>
+        <v>|X20 (inventory * 365) / sales                                                                                          |</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X24" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ann_inven_to_sales_ratio                |</v>
+        <v>ann_inven_to_sales_ratio               |</v>
       </c>
       <c r="Y24" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X20 (inventory * 365) / sales                                                                                            |--&gt;          |ann_inven_to_sales_ratio                |</v>
+        <v>|X20 (inventory * 365) / sales                                                                                          |--&gt;        |ann_inven_to_sales_ratio               |</v>
       </c>
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.25">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="R25" s="1">
         <f t="shared" si="12"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S25" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V25" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X21 sales (n) / sales (n-1)                                                                                              |</v>
+        <v>|X21 sales (n) / sales (n-1)                                                                                            |</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X25" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>sales_to_mod_sales_ratio                |</v>
+        <v>sales_to_mod_sales_ratio               |</v>
       </c>
       <c r="Y25" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X21 sales (n) / sales (n-1)                                                                                              |--&gt;          |sales_to_mod_sales_ratio                |</v>
+        <v>|X21 sales (n) / sales (n-1)                                                                                            |--&gt;        |sales_to_mod_sales_ratio               |</v>
       </c>
     </row>
     <row r="26" spans="3:25" x14ac:dyDescent="0.25">
@@ -2596,31 +2596,31 @@
       </c>
       <c r="R26" s="1">
         <f t="shared" si="12"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V26" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X22 profit on operating activities / total assets                                                                        |</v>
+        <v>|X22 profit on operating activities / total assets                                                                      |</v>
       </c>
       <c r="W26" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X26" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ops_prof_to_tot_assets_ratio            |</v>
+        <v>ops_prof_to_tot_assets_ratio           |</v>
       </c>
       <c r="Y26" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X22 profit on operating activities / total assets                                                                        |--&gt;          |ops_prof_to_tot_assets_ratio            |</v>
+        <v>|X22 profit on operating activities / total assets                                                                      |--&gt;        |ops_prof_to_tot_assets_ratio           |</v>
       </c>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.25">
@@ -2658,31 +2658,31 @@
       </c>
       <c r="R27" s="1">
         <f t="shared" si="12"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S27" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V27" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X23 net profit / sales                                                                                                   |</v>
+        <v>|X23 net profit / sales                                                                                                 |</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X27" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>net_prof_to_sales_ratio                 |</v>
+        <v>net_prof_to_sales_ratio                |</v>
       </c>
       <c r="Y27" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X23 net profit / sales                                                                                                   |--&gt;          |net_prof_to_sales_ratio                 |</v>
+        <v>|X23 net profit / sales                                                                                                 |--&gt;        |net_prof_to_sales_ratio                |</v>
       </c>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.25">
@@ -2720,31 +2720,31 @@
       </c>
       <c r="R28" s="1">
         <f t="shared" si="12"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S28" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V28" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X24 gross profit (in 3 years) / total assets                                                                             |</v>
+        <v>|X24 gross profit (in 3 years) / total assets                                                                           |</v>
       </c>
       <c r="W28" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X28" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>grss_prof3_to_tot_assets_ratio          |</v>
+        <v>grss_prof3_to_tot_assets_ratio         |</v>
       </c>
       <c r="Y28" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X24 gross profit (in 3 years) / total assets                                                                             |--&gt;          |grss_prof3_to_tot_assets_ratio          |</v>
+        <v>|X24 gross profit (in 3 years) / total assets                                                                           |--&gt;        |grss_prof3_to_tot_assets_ratio         |</v>
       </c>
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.25">
@@ -2782,31 +2782,31 @@
       </c>
       <c r="R29" s="1">
         <f t="shared" si="12"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S29" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V29" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X25 (equity - share capital) / total assets                                                                              |</v>
+        <v>|X25 (equity - share capital) / total assets                                                                            |</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X29" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_equ_to_tot_assets_ratio             |</v>
+        <v>mod_equ_to_tot_assets_ratio            |</v>
       </c>
       <c r="Y29" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X25 (equity - share capital) / total assets                                                                              |--&gt;          |mod_equ_to_tot_assets_ratio             |</v>
+        <v>|X25 (equity - share capital) / total assets                                                                            |--&gt;        |mod_equ_to_tot_assets_ratio            |</v>
       </c>
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2844,31 +2844,31 @@
       </c>
       <c r="R30" s="1">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S30" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V30" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X26 (net profit + depreciation) / total liabilities                                                                      |</v>
+        <v>|X26 (net profit + depreciation) / total liabilities                                                                    |</v>
       </c>
       <c r="W30" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X30" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_dep_net_prof_to_tot_liab_ratio      |</v>
+        <v>mod_dep_net_prof_to_tot_liab_ratio     |</v>
       </c>
       <c r="Y30" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X26 (net profit + depreciation) / total liabilities                                                                      |--&gt;          |mod_dep_net_prof_to_tot_liab_ratio      |</v>
+        <v>|X26 (net profit + depreciation) / total liabilities                                                                    |--&gt;        |mod_dep_net_prof_to_tot_liab_ratio     |</v>
       </c>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.25">
@@ -2906,31 +2906,31 @@
       </c>
       <c r="R31" s="1">
         <f t="shared" si="12"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V31" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X27 profit on operating activities / financial expenses                                                                  |</v>
+        <v>|X27 profit on operating activities / financial expenses                                                                |</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X31" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ops_prof_to_fin_exp_ratio               |</v>
+        <v>ops_prof_to_fin_exp_ratio              |</v>
       </c>
       <c r="Y31" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X27 profit on operating activities / financial expenses                                                                  |--&gt;          |ops_prof_to_fin_exp_ratio               |</v>
+        <v>|X27 profit on operating activities / financial expenses                                                                |--&gt;        |ops_prof_to_fin_exp_ratio              |</v>
       </c>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.25">
@@ -2968,31 +2968,31 @@
       </c>
       <c r="R32" s="1">
         <f t="shared" si="12"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S32" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V32" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X28 working capital / fixed assets                                                                                       |</v>
+        <v>|X28 working capital / fixed assets                                                                                     |</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X32" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>work_cap_to_fx_assets_ratio             |</v>
+        <v>work_cap_to_fx_assets_ratio            |</v>
       </c>
       <c r="Y32" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X28 working capital / fixed assets                                                                                       |--&gt;          |work_cap_to_fx_assets_ratio             |</v>
+        <v>|X28 working capital / fixed assets                                                                                     |--&gt;        |work_cap_to_fx_assets_ratio            |</v>
       </c>
     </row>
     <row r="33" spans="3:25" x14ac:dyDescent="0.25">
@@ -3030,31 +3030,31 @@
       </c>
       <c r="R33" s="1">
         <f t="shared" si="12"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="14"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V33" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X29 logarithm of total assets                                                                                            |</v>
+        <v>|X29 logarithm of total assets                                                                                          |</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X33" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>tot_assets_log                          |</v>
+        <v>tot_assets_log                         |</v>
       </c>
       <c r="Y33" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X29 logarithm of total assets                                                                                            |--&gt;          |tot_assets_log                          |</v>
+        <v>|X29 logarithm of total assets                                                                                          |--&gt;        |tot_assets_log                         |</v>
       </c>
     </row>
     <row r="34" spans="3:25" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>65</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3092,31 +3092,31 @@
       </c>
       <c r="R34" s="1">
         <f t="shared" si="12"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V34" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X30 (total liabilities - cash) / sales                                                                                   |</v>
+        <v>|X30 (total liabilities - cash) / sales                                                                                 |</v>
       </c>
       <c r="W34" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X34" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_csh_tot_liab_to_sales_ratio         |</v>
+        <v>mod_csh_tot_liab_to_sales_ratio        |</v>
       </c>
       <c r="Y34" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X30 (total liabilities - cash) / sales                                                                                   |--&gt;          |mod_csh_tot_liab_to_sales_ratio         |</v>
+        <v>|X30 (total liabilities - cash) / sales                                                                                 |--&gt;        |mod_csh_tot_liab_to_sales_ratio        |</v>
       </c>
     </row>
     <row r="35" spans="3:25" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
         <v>65</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3154,31 +3154,31 @@
       </c>
       <c r="R35" s="1">
         <f t="shared" si="12"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S35" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V35" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X31 (gross profit + interest) / sales                                                                                    |</v>
+        <v>|X31 (gross profit + interest) / sales                                                                                  |</v>
       </c>
       <c r="W35" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X35" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_int_grss_prof_to_sales_ratio        |</v>
+        <v>mod_int_grss_prof_to_sales_ratio       |</v>
       </c>
       <c r="Y35" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X31 (gross profit + interest) / sales                                                                                    |--&gt;          |mod_int_grss_prof_to_sales_ratio        |</v>
+        <v>|X31 (gross profit + interest) / sales                                                                                  |--&gt;        |mod_int_grss_prof_to_sales_ratio       |</v>
       </c>
     </row>
     <row r="36" spans="3:25" x14ac:dyDescent="0.25">
@@ -3216,31 +3216,31 @@
       </c>
       <c r="R36" s="1">
         <f t="shared" si="12"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S36" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V36" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X32 (current liabilities * 365) / cost of products sold                                                                  |</v>
+        <v>|X32 (current liabilities * 365) / cost of products sold                                                                |</v>
       </c>
       <c r="W36" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X36" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ann_curr_liab_to_cops_ratio             |</v>
+        <v>ann_curr_liab_to_cops_ratio            |</v>
       </c>
       <c r="Y36" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X32 (current liabilities * 365) / cost of products sold                                                                  |--&gt;          |ann_curr_liab_to_cops_ratio             |</v>
+        <v>|X32 (current liabilities * 365) / cost of products sold                                                                |--&gt;        |ann_curr_liab_to_cops_ratio            |</v>
       </c>
     </row>
     <row r="37" spans="3:25" x14ac:dyDescent="0.25">
@@ -3278,31 +3278,31 @@
       </c>
       <c r="R37" s="1">
         <f t="shared" si="12"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S37" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V37" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X33 operating expenses / short-term liabilities                                                                          |</v>
+        <v>|X33 operating expenses / short-term liabilities                                                                        |</v>
       </c>
       <c r="W37" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X37" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ops_exp_to_st_liab_ratio                |</v>
+        <v>ops_exp_to_st_liab_ratio               |</v>
       </c>
       <c r="Y37" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X33 operating expenses / short-term liabilities                                                                          |--&gt;          |ops_exp_to_st_liab_ratio                |</v>
+        <v>|X33 operating expenses / short-term liabilities                                                                        |--&gt;        |ops_exp_to_st_liab_ratio               |</v>
       </c>
     </row>
     <row r="38" spans="3:25" x14ac:dyDescent="0.25">
@@ -3340,31 +3340,31 @@
       </c>
       <c r="R38" s="1">
         <f t="shared" si="12"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S38" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T38" s="1">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V38" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X34 operating expenses / total liabilities                                                                               |</v>
+        <v>|X34 operating expenses / total liabilities                                                                             |</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X38" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ops_exp_to_tot_liab_ratio               |</v>
+        <v>ops_exp_to_tot_liab_ratio              |</v>
       </c>
       <c r="Y38" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X34 operating expenses / total liabilities                                                                               |--&gt;          |ops_exp_to_tot_liab_ratio               |</v>
+        <v>|X34 operating expenses / total liabilities                                                                             |--&gt;        |ops_exp_to_tot_liab_ratio              |</v>
       </c>
     </row>
     <row r="39" spans="3:25" x14ac:dyDescent="0.25">
@@ -3402,31 +3402,31 @@
       </c>
       <c r="R39" s="1">
         <f t="shared" si="12"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S39" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T39" s="1">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V39" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X35 profit on sales / total assets                                                                                       |</v>
+        <v>|X35 profit on sales / total assets                                                                                     |</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X39" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>sales_prof_to_tot_assets_ratio          |</v>
+        <v>sales_prof_to_tot_assets_ratio         |</v>
       </c>
       <c r="Y39" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X35 profit on sales / total assets                                                                                       |--&gt;          |sales_prof_to_tot_assets_ratio          |</v>
+        <v>|X35 profit on sales / total assets                                                                                     |--&gt;        |sales_prof_to_tot_assets_ratio         |</v>
       </c>
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.25">
@@ -3464,31 +3464,31 @@
       </c>
       <c r="R40" s="1">
         <f t="shared" si="12"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S40" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T40" s="1">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V40" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X36 total sales / total assets                                                                                           |</v>
+        <v>|X36 total sales / total assets                                                                                         |</v>
       </c>
       <c r="W40" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X40" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>tot_sales_to_tot_assets_ratio           |</v>
+        <v>tot_sales_to_tot_assets_ratio          |</v>
       </c>
       <c r="Y40" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X36 total sales / total assets                                                                                           |--&gt;          |tot_sales_to_tot_assets_ratio           |</v>
+        <v>|X36 total sales / total assets                                                                                         |--&gt;        |tot_sales_to_tot_assets_ratio          |</v>
       </c>
     </row>
     <row r="41" spans="3:25" x14ac:dyDescent="0.25">
@@ -3526,31 +3526,31 @@
       </c>
       <c r="R41" s="1">
         <f t="shared" si="12"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S41" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T41" s="1">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V41" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X37 (current assets - inventories) / long-term liabilities                                                               |</v>
+        <v>|X37 (current assets - inventories) / long-term liabilities                                                             |</v>
       </c>
       <c r="W41" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X41" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_curr_assets_to_lt_liab_ratio        |</v>
+        <v>mod_curr_assets_to_lt_liab_ratio       |</v>
       </c>
       <c r="Y41" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X37 (current assets - inventories) / long-term liabilities                                                               |--&gt;          |mod_curr_assets_to_lt_liab_ratio        |</v>
+        <v>|X37 (current assets - inventories) / long-term liabilities                                                             |--&gt;        |mod_curr_assets_to_lt_liab_ratio       |</v>
       </c>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.25">
@@ -3588,31 +3588,31 @@
       </c>
       <c r="R42" s="1">
         <f t="shared" si="12"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S42" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T42" s="1">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V42" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X38 constant capital / total assets                                                                                      |</v>
+        <v>|X38 constant capital / total assets                                                                                    |</v>
       </c>
       <c r="W42" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X42" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>co_cap_to_tot_assets_ratio              |</v>
+        <v>co_cap_to_tot_assets_ratio             |</v>
       </c>
       <c r="Y42" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X38 constant capital / total assets                                                                                      |--&gt;          |co_cap_to_tot_assets_ratio              |</v>
+        <v>|X38 constant capital / total assets                                                                                    |--&gt;        |co_cap_to_tot_assets_ratio             |</v>
       </c>
     </row>
     <row r="43" spans="3:25" x14ac:dyDescent="0.25">
@@ -3650,31 +3650,31 @@
       </c>
       <c r="R43" s="1">
         <f t="shared" si="12"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V43" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X39 profit on sales / sales                                                                                              |</v>
+        <v>|X39 profit on sales / sales                                                                                            |</v>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X43" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>sales_prof_to_sales_ratio               |</v>
+        <v>sales_prof_to_sales_ratio              |</v>
       </c>
       <c r="Y43" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X39 profit on sales / sales                                                                                              |--&gt;          |sales_prof_to_sales_ratio               |</v>
+        <v>|X39 profit on sales / sales                                                                                            |--&gt;        |sales_prof_to_sales_ratio              |</v>
       </c>
     </row>
     <row r="44" spans="3:25" x14ac:dyDescent="0.25">
@@ -3688,7 +3688,7 @@
         <v>65</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3712,31 +3712,31 @@
       </c>
       <c r="R44" s="1">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S44" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T44" s="1">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X40 (current assets - inventory - receivables) / short-term liabilities                                                  |</v>
+        <v>|X40 (current assets - inventory - receivables) / short-term liabilities                                                |</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X44" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_ir_curr_assets_to_st_liab_ratio     |</v>
+        <v>mod_ir_curr_assets_to_st_liab_ratio    |</v>
       </c>
       <c r="Y44" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X40 (current assets - inventory - receivables) / short-term liabilities                                                  |--&gt;          |mod_ir_curr_assets_to_st_liab_ratio     |</v>
+        <v>|X40 (current assets - inventory - receivables) / short-term liabilities                                                |--&gt;        |mod_ir_curr_assets_to_st_liab_ratio    |</v>
       </c>
     </row>
     <row r="45" spans="3:25" x14ac:dyDescent="0.25">
@@ -3774,31 +3774,31 @@
       </c>
       <c r="R45" s="1">
         <f t="shared" si="12"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S45" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V45" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X41 total liabilities / ((profit on operating activities + depreciation) * (12/365))                                     |</v>
+        <v>|X41 total liabilities / ((profit on operating activities + depreciation) * (12/365))                                   |</v>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X45" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>tot_liab_to_mth_mod_ops_prof            |</v>
+        <v>tot_liab_to_mth_mod_ops_prof           |</v>
       </c>
       <c r="Y45" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X41 total liabilities / ((profit on operating activities + depreciation) * (12/365))                                     |--&gt;          |tot_liab_to_mth_mod_ops_prof            |</v>
+        <v>|X41 total liabilities / ((profit on operating activities + depreciation) * (12/365))                                   |--&gt;        |tot_liab_to_mth_mod_ops_prof           |</v>
       </c>
     </row>
     <row r="46" spans="3:25" x14ac:dyDescent="0.25">
@@ -3836,31 +3836,31 @@
       </c>
       <c r="R46" s="1">
         <f t="shared" si="12"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S46" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V46" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X42 profit on operating activities / sales                                                                               |</v>
+        <v>|X42 profit on operating activities / sales                                                                             |</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X46" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ops_prof_to_sales_ratio                 |</v>
+        <v>ops_prof_to_sales_ratio                |</v>
       </c>
       <c r="Y46" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X42 profit on operating activities / sales                                                                               |--&gt;          |ops_prof_to_sales_ratio                 |</v>
+        <v>|X42 profit on operating activities / sales                                                                             |--&gt;        |ops_prof_to_sales_ratio                |</v>
       </c>
     </row>
     <row r="47" spans="3:25" x14ac:dyDescent="0.25">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="R47" s="1">
         <f t="shared" si="12"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S47" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T47" s="1">
         <f t="shared" si="14"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V47" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X43 rotation receivables + inventory turnover in days                                                                    |</v>
+        <v>|X43 rotation receivables + inventory turnover in days                                                                  |</v>
       </c>
       <c r="W47" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X47" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_rot_receiv                          |</v>
+        <v>mod_rot_receiv                         |</v>
       </c>
       <c r="Y47" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X43 rotation receivables + inventory turnover in days                                                                    |--&gt;          |mod_rot_receiv                          |</v>
+        <v>|X43 rotation receivables + inventory turnover in days                                                                  |--&gt;        |mod_rot_receiv                         |</v>
       </c>
     </row>
     <row r="48" spans="3:25" x14ac:dyDescent="0.25">
@@ -3960,31 +3960,31 @@
       </c>
       <c r="R48" s="1">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S48" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V48" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X44 (receivables * 365) / sales                                                                                          |</v>
+        <v>|X44 (receivables * 365) / sales                                                                                        |</v>
       </c>
       <c r="W48" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X48" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ann_receiv_to_sales_ratio               |</v>
+        <v>ann_receiv_to_sales_ratio              |</v>
       </c>
       <c r="Y48" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X44 (receivables * 365) / sales                                                                                          |--&gt;          |ann_receiv_to_sales_ratio               |</v>
+        <v>|X44 (receivables * 365) / sales                                                                                        |--&gt;        |ann_receiv_to_sales_ratio              |</v>
       </c>
     </row>
     <row r="49" spans="3:25" x14ac:dyDescent="0.25">
@@ -4022,31 +4022,31 @@
       </c>
       <c r="R49" s="1">
         <f t="shared" si="12"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S49" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T49" s="1">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V49" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X45 net profit / inventory                                                                                               |</v>
+        <v>|X45 net profit / inventory                                                                                             |</v>
       </c>
       <c r="W49" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X49" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>net_prof_to_inven_ratio                 |</v>
+        <v>net_prof_to_inven_ratio                |</v>
       </c>
       <c r="Y49" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X45 net profit / inventory                                                                                               |--&gt;          |net_prof_to_inven_ratio                 |</v>
+        <v>|X45 net profit / inventory                                                                                             |--&gt;        |net_prof_to_inven_ratio                |</v>
       </c>
     </row>
     <row r="50" spans="3:25" x14ac:dyDescent="0.25">
@@ -4060,11 +4060,11 @@
         <v>65</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">'mod_iven_curr_assets_to_st_liab_ratio', </v>
+        <v xml:space="preserve">'mod_inven_curr_assets_to_st_liab_ratio', </v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="8"/>
@@ -4080,35 +4080,35 @@
       </c>
       <c r="P50" s="1">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R50" s="1">
         <f t="shared" si="12"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S50" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T50" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X46 (current assets - inventory) / short-term liabilities                                                                |</v>
+        <v>|X46 (current assets - inventory) / short-term liabilities                                                              |</v>
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X50" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_iven_curr_assets_to_st_liab_ratio   |</v>
+        <v>mod_inven_curr_assets_to_st_liab_ratio |</v>
       </c>
       <c r="Y50" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X46 (current assets - inventory) / short-term liabilities                                                                |--&gt;          |mod_iven_curr_assets_to_st_liab_ratio   |</v>
+        <v>|X46 (current assets - inventory) / short-term liabilities                                                              |--&gt;        |mod_inven_curr_assets_to_st_liab_ratio |</v>
       </c>
     </row>
     <row r="51" spans="3:25" x14ac:dyDescent="0.25">
@@ -4146,31 +4146,31 @@
       </c>
       <c r="R51" s="1">
         <f t="shared" si="12"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S51" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T51" s="1">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V51" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X47 (inventory * 365) / cost of products sold                                                                            |</v>
+        <v>|X47 (inventory * 365) / cost of products sold                                                                          |</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X51" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ann_inven_to_cops_ratio                 |</v>
+        <v>ann_inven_to_cops_ratio                |</v>
       </c>
       <c r="Y51" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X47 (inventory * 365) / cost of products sold                                                                            |--&gt;          |ann_inven_to_cops_ratio                 |</v>
+        <v>|X47 (inventory * 365) / cost of products sold                                                                          |--&gt;        |ann_inven_to_cops_ratio                |</v>
       </c>
     </row>
     <row r="52" spans="3:25" x14ac:dyDescent="0.25">
@@ -4208,31 +4208,31 @@
       </c>
       <c r="R52" s="1">
         <f t="shared" si="12"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S52" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T52" s="1">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V52" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X48 EBITDA (profit on operating activities - depreciation) / total assets                                                |</v>
+        <v>|X48 EBITDA (profit on operating activities - depreciation) / total assets                                              |</v>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X52" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ebitda_to_tot_assets_ratio              |</v>
+        <v>ebitda_to_tot_assets_ratio             |</v>
       </c>
       <c r="Y52" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X48 EBITDA (profit on operating activities - depreciation) / total assets                                                |--&gt;          |ebitda_to_tot_assets_ratio              |</v>
+        <v>|X48 EBITDA (profit on operating activities - depreciation) / total assets                                              |--&gt;        |ebitda_to_tot_assets_ratio             |</v>
       </c>
     </row>
     <row r="53" spans="3:25" x14ac:dyDescent="0.25">
@@ -4270,31 +4270,31 @@
       </c>
       <c r="R53" s="1">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S53" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T53" s="1">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V53" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X49 EBITDA (profit on operating activities - depreciation) / sales                                                       |</v>
+        <v>|X49 EBITDA (profit on operating activities - depreciation) / sales                                                     |</v>
       </c>
       <c r="W53" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X53" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ebitda_to_tot_sales_ratio               |</v>
+        <v>ebitda_to_tot_sales_ratio              |</v>
       </c>
       <c r="Y53" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X49 EBITDA (profit on operating activities - depreciation) / sales                                                       |--&gt;          |ebitda_to_tot_sales_ratio               |</v>
+        <v>|X49 EBITDA (profit on operating activities - depreciation) / sales                                                     |--&gt;        |ebitda_to_tot_sales_ratio              |</v>
       </c>
     </row>
     <row r="54" spans="3:25" x14ac:dyDescent="0.25">
@@ -4332,31 +4332,31 @@
       </c>
       <c r="R54" s="1">
         <f t="shared" si="12"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S54" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V54" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X50 current assets / total liabilities                                                                                   |</v>
+        <v>|X50 current assets / total liabilities                                                                                 |</v>
       </c>
       <c r="W54" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X54" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>curr_assets_to_tot_liab_ratio           |</v>
+        <v>curr_assets_to_tot_liab_ratio          |</v>
       </c>
       <c r="Y54" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X50 current assets / total liabilities                                                                                   |--&gt;          |curr_assets_to_tot_liab_ratio           |</v>
+        <v>|X50 current assets / total liabilities                                                                                 |--&gt;        |curr_assets_to_tot_liab_ratio          |</v>
       </c>
     </row>
     <row r="55" spans="3:25" x14ac:dyDescent="0.25">
@@ -4394,31 +4394,31 @@
       </c>
       <c r="R55" s="1">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V55" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X51 short-term liabilities / total assets                                                                                |</v>
+        <v>|X51 short-term liabilities / total assets                                                                              |</v>
       </c>
       <c r="W55" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X55" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>st_liab_to_tot_assets_ratio             |</v>
+        <v>st_liab_to_tot_assets_ratio            |</v>
       </c>
       <c r="Y55" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X51 short-term liabilities / total assets                                                                                |--&gt;          |st_liab_to_tot_assets_ratio             |</v>
+        <v>|X51 short-term liabilities / total assets                                                                              |--&gt;        |st_liab_to_tot_assets_ratio            |</v>
       </c>
     </row>
     <row r="56" spans="3:25" x14ac:dyDescent="0.25">
@@ -4456,31 +4456,31 @@
       </c>
       <c r="R56" s="1">
         <f t="shared" si="12"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S56" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T56" s="1">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V56" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X52 (short-term liabilities * 365) / cost of products sold)                                                              |</v>
+        <v>|X52 (short-term liabilities * 365) / cost of products sold)                                                            |</v>
       </c>
       <c r="W56" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X56" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ann_st_liab_to_cops_ratio               |</v>
+        <v>ann_st_liab_to_cops_ratio              |</v>
       </c>
       <c r="Y56" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X52 (short-term liabilities * 365) / cost of products sold)                                                              |--&gt;          |ann_st_liab_to_cops_ratio               |</v>
+        <v>|X52 (short-term liabilities * 365) / cost of products sold)                                                            |--&gt;        |ann_st_liab_to_cops_ratio              |</v>
       </c>
     </row>
     <row r="57" spans="3:25" x14ac:dyDescent="0.25">
@@ -4518,31 +4518,31 @@
       </c>
       <c r="R57" s="1">
         <f t="shared" si="12"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S57" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T57" s="1">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V57" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X53 equity / fixed assets                                                                                                |</v>
+        <v>|X53 equity / fixed assets                                                                                              |</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X57" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>equ_to_fx_assets_ratio                  |</v>
+        <v>equ_to_fx_assets_ratio                 |</v>
       </c>
       <c r="Y57" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X53 equity / fixed assets                                                                                                |--&gt;          |equ_to_fx_assets_ratio                  |</v>
+        <v>|X53 equity / fixed assets                                                                                              |--&gt;        |equ_to_fx_assets_ratio                 |</v>
       </c>
     </row>
     <row r="58" spans="3:25" x14ac:dyDescent="0.25">
@@ -4580,31 +4580,31 @@
       </c>
       <c r="R58" s="1">
         <f t="shared" si="12"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S58" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T58" s="1">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V58" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X54 constant capital / fixed assets                                                                                      |</v>
+        <v>|X54 constant capital / fixed assets                                                                                    |</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X58" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>co_cap_to_fx_assets_ratio               |</v>
+        <v>co_cap_to_fx_assets_ratio              |</v>
       </c>
       <c r="Y58" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X54 constant capital / fixed assets                                                                                      |--&gt;          |co_cap_to_fx_assets_ratio               |</v>
+        <v>|X54 constant capital / fixed assets                                                                                    |--&gt;        |co_cap_to_fx_assets_ratio              |</v>
       </c>
     </row>
     <row r="59" spans="3:25" x14ac:dyDescent="0.25">
@@ -4642,31 +4642,31 @@
       </c>
       <c r="R59" s="1">
         <f t="shared" si="12"/>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S59" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T59" s="1">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V59" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X55 working capital                                                                                                      |</v>
+        <v>|X55 working capital                                                                                                    |</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X59" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>work_cap                                |</v>
+        <v>work_cap                               |</v>
       </c>
       <c r="Y59" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X55 working capital                                                                                                      |--&gt;          |work_cap                                |</v>
+        <v>|X55 working capital                                                                                                    |--&gt;        |work_cap                               |</v>
       </c>
     </row>
     <row r="60" spans="3:25" x14ac:dyDescent="0.25">
@@ -4680,7 +4680,7 @@
         <v>65</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="7"/>
@@ -4704,31 +4704,31 @@
       </c>
       <c r="R60" s="1">
         <f t="shared" si="12"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S60" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T60" s="1">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V60" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X56 (sales - cost of products sold) / sales                                                                              |</v>
+        <v>|X56 (sales - cost of products sold) / sales                                                                            |</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X60" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_cops_sales_to_sales_ratio           |</v>
+        <v>mod_cops_sales_to_sales_ratio          |</v>
       </c>
       <c r="Y60" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X56 (sales - cost of products sold) / sales                                                                              |--&gt;          |mod_cops_sales_to_sales_ratio           |</v>
+        <v>|X56 (sales - cost of products sold) / sales                                                                            |--&gt;        |mod_cops_sales_to_sales_ratio          |</v>
       </c>
     </row>
     <row r="61" spans="3:25" x14ac:dyDescent="0.25">
@@ -4766,31 +4766,31 @@
       </c>
       <c r="R61" s="1">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S61" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T61" s="1">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V61" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X57 (current assets - inventory - short-term liabilities) / (sales - gross profit - depreciation)                        |</v>
+        <v>|X57 (current assets - inventory - short-term liabilities) / (sales - gross profit - depreciation)                      |</v>
       </c>
       <c r="W61" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X61" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>mod_curr_assets_to_mod_sales_ratio      |</v>
+        <v>mod_curr_assets_to_mod_sales_ratio     |</v>
       </c>
       <c r="Y61" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X57 (current assets - inventory - short-term liabilities) / (sales - gross profit - depreciation)                        |--&gt;          |mod_curr_assets_to_mod_sales_ratio      |</v>
+        <v>|X57 (current assets - inventory - short-term liabilities) / (sales - gross profit - depreciation)                      |--&gt;        |mod_curr_assets_to_mod_sales_ratio     |</v>
       </c>
     </row>
     <row r="62" spans="3:25" x14ac:dyDescent="0.25">
@@ -4828,31 +4828,31 @@
       </c>
       <c r="R62" s="1">
         <f t="shared" si="12"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T62" s="1">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V62" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X58 total costs /total sales                                                                                             |</v>
+        <v>|X58 total costs /total sales                                                                                           |</v>
       </c>
       <c r="W62" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X62" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>tot_costs_to_tot_sales_ratio            |</v>
+        <v>tot_costs_to_tot_sales_ratio           |</v>
       </c>
       <c r="Y62" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X58 total costs /total sales                                                                                             |--&gt;          |tot_costs_to_tot_sales_ratio            |</v>
+        <v>|X58 total costs /total sales                                                                                           |--&gt;        |tot_costs_to_tot_sales_ratio           |</v>
       </c>
     </row>
     <row r="63" spans="3:25" x14ac:dyDescent="0.25">
@@ -4890,31 +4890,31 @@
       </c>
       <c r="R63" s="1">
         <f t="shared" si="12"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S63" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V63" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X59 long-term liabilities / equity                                                                                       |</v>
+        <v>|X59 long-term liabilities / equity                                                                                     |</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X63" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>lt_liab_to_equ_ratio                    |</v>
+        <v>lt_liab_to_equ_ratio                   |</v>
       </c>
       <c r="Y63" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X59 long-term liabilities / equity                                                                                       |--&gt;          |lt_liab_to_equ_ratio                    |</v>
+        <v>|X59 long-term liabilities / equity                                                                                     |--&gt;        |lt_liab_to_equ_ratio                   |</v>
       </c>
     </row>
     <row r="64" spans="3:25" x14ac:dyDescent="0.25">
@@ -4928,11 +4928,11 @@
         <v>65</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">'sales_inven_ratio', </v>
+        <v xml:space="preserve">'sales_to_inven_ratio', </v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="8"/>
@@ -4948,35 +4948,35 @@
       </c>
       <c r="P64" s="1">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S64" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T64" s="1">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V64" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X60 sales / inventory                                                                                                    |</v>
+        <v>|X60 sales / inventory                                                                                                  |</v>
       </c>
       <c r="W64" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X64" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>sales_inven_ratio                       |</v>
+        <v>sales_to_inven_ratio                   |</v>
       </c>
       <c r="Y64" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X60 sales / inventory                                                                                                    |--&gt;          |sales_inven_ratio                       |</v>
+        <v>|X60 sales / inventory                                                                                                  |--&gt;        |sales_to_inven_ratio                   |</v>
       </c>
     </row>
     <row r="65" spans="3:25" x14ac:dyDescent="0.25">
@@ -4990,7 +4990,7 @@
         <v>65</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5014,31 +5014,31 @@
       </c>
       <c r="R65" s="1">
         <f t="shared" si="12"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S65" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T65" s="1">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V65" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X61 sales / receivables                                                                                                  |</v>
+        <v>|X61 sales / receivables                                                                                                |</v>
       </c>
       <c r="W65" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X65" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>sales_to_receiv_ratio                   |</v>
+        <v>sales_to_receiv_ratio                  |</v>
       </c>
       <c r="Y65" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X61 sales / receivables                                                                                                  |--&gt;          |sales_to_receiv_ratio                   |</v>
+        <v>|X61 sales / receivables                                                                                                |--&gt;        |sales_to_receiv_ratio                  |</v>
       </c>
     </row>
     <row r="66" spans="3:25" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5076,31 +5076,31 @@
       </c>
       <c r="R66" s="1">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S66" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T66" s="1">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V66" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X62 (short-term liabilities *365) / sales                                                                                |</v>
+        <v>|X62 (short-term liabilities *365) / sales                                                                              |</v>
       </c>
       <c r="W66" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X66" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>ann_st_liab_to_sales_ratio              |</v>
+        <v>ann_st_liab_to_sales_ratio             |</v>
       </c>
       <c r="Y66" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X62 (short-term liabilities *365) / sales                                                                                |--&gt;          |ann_st_liab_to_sales_ratio              |</v>
+        <v>|X62 (short-term liabilities *365) / sales                                                                              |--&gt;        |ann_st_liab_to_sales_ratio             |</v>
       </c>
     </row>
     <row r="67" spans="3:25" x14ac:dyDescent="0.25">
@@ -5114,7 +5114,7 @@
         <v>65</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5138,31 +5138,31 @@
       </c>
       <c r="R67" s="1">
         <f t="shared" si="12"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S67" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T67" s="1">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V67" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X63 sales / short-term liabilities                                                                                       |</v>
+        <v>|X63 sales / short-term liabilities                                                                                     |</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X67" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>sales_to_st_liab_ratio                  |</v>
+        <v>sales_to_st_liab_ratio                 |</v>
       </c>
       <c r="Y67" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X63 sales / short-term liabilities                                                                                       |--&gt;          |sales_to_st_liab_ratio                  |</v>
+        <v>|X63 sales / short-term liabilities                                                                                     |--&gt;        |sales_to_st_liab_ratio                 |</v>
       </c>
     </row>
     <row r="68" spans="3:25" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
         <v>65</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5200,31 +5200,31 @@
       </c>
       <c r="R68" s="1">
         <f t="shared" si="12"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S68" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T68" s="1">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V68" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|X64 sales / fixed assets                                                                                                 |</v>
+        <v>|X64 sales / fixed assets                                                                                               |</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X68" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>sales_to_fx_assets_ratio                |</v>
+        <v>sales_to_fx_assets_ratio               |</v>
       </c>
       <c r="Y68" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>|X64 sales / fixed assets                                                                                                 |--&gt;          |sales_to_fx_assets_ratio                |</v>
+        <v>|X64 sales / fixed assets                                                                                               |--&gt;        |sales_to_fx_assets_ratio               |</v>
       </c>
     </row>
     <row r="69" spans="3:25" x14ac:dyDescent="0.25">
@@ -5262,31 +5262,31 @@
       </c>
       <c r="R69" s="1">
         <f t="shared" si="12"/>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S69" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T69" s="1">
         <f t="shared" si="14"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V69" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>|class                                                                                                                    |</v>
+        <v>|class                                                                                                                  |</v>
       </c>
       <c r="W69" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>--&gt;          |</v>
+        <v>--&gt;        |</v>
       </c>
       <c r="X69" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>Class                                   |</v>
+        <v>Class                                  |</v>
       </c>
       <c r="Y69" s="1" t="str">
         <f>V69&amp;W69&amp;X69</f>
-        <v>|class                                                                                                                    |--&gt;          |Class                                   |</v>
+        <v>|class                                                                                                                  |--&gt;        |Class                                  |</v>
       </c>
     </row>
   </sheetData>
@@ -5302,7 +5302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090D3FF-5836-44FC-867D-9F36E0368658}">
   <dimension ref="D1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -5356,13 +5356,13 @@
     </row>
     <row r="3" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:P13" si="0">LEN(D3)</f>
@@ -5452,10 +5452,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>"'"&amp;IF(F5="",D5,F5)&amp;"', "</f>
@@ -5504,13 +5504,13 @@
     </row>
     <row r="6" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" ref="G6:G55" si="3">"'"&amp;IF(F6="",D6,F6)&amp;"', "</f>
@@ -5559,13 +5559,13 @@
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5614,13 +5614,13 @@
     </row>
     <row r="8" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5669,13 +5669,13 @@
     </row>
     <row r="9" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5724,13 +5724,13 @@
     </row>
     <row r="10" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5779,13 +5779,13 @@
     </row>
     <row r="11" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5834,13 +5834,13 @@
     </row>
     <row r="12" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5889,13 +5889,13 @@
     </row>
     <row r="13" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5944,13 +5944,13 @@
     </row>
     <row r="14" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5999,13 +5999,13 @@
     </row>
     <row r="15" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6054,13 +6054,13 @@
     </row>
     <row r="16" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6109,13 +6109,13 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6164,13 +6164,13 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6219,13 +6219,13 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D19" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6274,13 +6274,13 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D20" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6329,13 +6329,13 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6384,13 +6384,13 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6439,13 +6439,13 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6494,13 +6494,13 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6552,10 +6552,10 @@
         <v>9</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6604,13 +6604,13 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D26" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6659,13 +6659,13 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D27" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6714,13 +6714,13 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D28" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6769,13 +6769,13 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D29" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6824,13 +6824,13 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6879,13 +6879,13 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D31" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G31" s="1" t="str">
         <f t="shared" si="3"/>
